--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2703.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2703.xlsx
@@ -354,7 +354,7 @@
         <v>2.41270477035926</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.340529228282405</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2703.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2703.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.165794541803635</v>
+        <v>0.6717289090156555</v>
       </c>
       <c r="B1">
-        <v>2.41270477035926</v>
+        <v>1.01912784576416</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.228631019592285</v>
       </c>
       <c r="D1">
-        <v>2.340529228282405</v>
+        <v>3.95419979095459</v>
       </c>
       <c r="E1">
-        <v>1.216765904128027</v>
+        <v>1.608527421951294</v>
       </c>
     </row>
   </sheetData>
